--- a/data/PVAL05 comparisons.xlsx
+++ b/data/PVAL05 comparisons.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
   <si>
     <t>Analyst</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>Pet food</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Sunflower kernals</t>
+  </si>
+  <si>
+    <t>boiled peanuts</t>
+  </si>
+  <si>
+    <t>Bubbles? (No Bubbles?</t>
   </si>
 </sst>
 </file>
@@ -449,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,17 +475,17 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -493,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -512,8 +524,12 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>D4-E4</f>
+        <v>-0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -529,8 +545,12 @@
       <c r="E5">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" ref="G5:G39" si="0">D5-E5</f>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -546,8 +566,12 @@
       <c r="E6">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -566,8 +590,12 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -586,8 +614,11 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -603,8 +634,12 @@
       <c r="E9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -620,8 +655,12 @@
       <c r="E10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -641,7 +680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -657,8 +696,12 @@
       <c r="E12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -674,8 +717,12 @@
       <c r="E13">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -691,8 +738,12 @@
       <c r="E14">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -708,8 +759,12 @@
       <c r="E15">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -725,8 +780,12 @@
       <c r="E16">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -742,8 +801,12 @@
       <c r="E17">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -759,8 +822,11 @@
       <c r="E18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -779,8 +845,12 @@
       <c r="F19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -796,8 +866,12 @@
       <c r="E20">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -816,8 +890,12 @@
       <c r="F21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -833,8 +911,12 @@
       <c r="E22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -854,7 +936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -870,8 +952,12 @@
       <c r="E24">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -887,8 +973,12 @@
       <c r="E25">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -904,8 +994,12 @@
       <c r="E26">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -921,8 +1015,12 @@
       <c r="E27">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -941,8 +1039,12 @@
       <c r="F28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -958,8 +1060,12 @@
       <c r="E29">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -975,8 +1081,12 @@
       <c r="E30">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1102,12 @@
       <c r="E31">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1009,8 +1123,12 @@
       <c r="E32">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1026,9 +1144,140 @@
       <c r="E33">
         <v>0.5</v>
       </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>2.7</v>
+      </c>
+      <c r="E34">
+        <v>3.1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>8783395</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>0.9</v>
+      </c>
+      <c r="E35">
+        <v>0.8</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>9524375</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>9528326</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>1.4</v>
+      </c>
+      <c r="E37">
+        <v>1.2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>9531576</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.4</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>9529763</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>1.3</v>
+      </c>
+      <c r="G39">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>